--- a/KAIST_IAM_GROUP/231031_KPX/2023전망작업_전력거래소분류_KDI전망치반영_안지석 수정.xlsx
+++ b/KAIST_IAM_GROUP/231031_KPX/2023전망작업_전력거래소분류_KDI전망치반영_안지석 수정.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R\Rproject\jiseok_personal\KAIST_IAM_GROUP\231031_KPX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4AA6B33-B0F8-431D-AFE4-65190699796E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C9474BD-B4D8-4927-BDE8-6F9440E0D709}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="1620" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="5" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="industry primary output by sec" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -246,7 +247,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -262,6 +263,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -289,7 +296,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -312,6 +319,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -6949,15 +6959,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>39</xdr:col>
-      <xdr:colOff>48559</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>200959</xdr:rowOff>
+      <xdr:colOff>558906</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>48697</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>43</xdr:col>
-      <xdr:colOff>358589</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>82178</xdr:rowOff>
+      <xdr:colOff>868936</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>151614</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7252,24 +7262,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{977731A7-82BC-4DA5-8602-053BC0CAE208}">
   <dimension ref="A1:BA88"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="A1:B1"/>
+      <selection pane="bottomRight" activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="42.625" customWidth="1"/>
-    <col min="2" max="2" width="25.625" customWidth="1"/>
+    <col min="1" max="1" width="42.58203125" customWidth="1"/>
+    <col min="2" max="2" width="25.58203125" hidden="1" customWidth="1"/>
     <col min="3" max="4" width="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="25" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="25" width="14.58203125" bestFit="1" customWidth="1"/>
     <col min="26" max="43" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="44" max="53" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="44" max="53" width="14.58203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:53" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>51</v>
       </c>
@@ -7424,7 +7434,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="2" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:53" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -7545,19 +7555,19 @@
       <c r="AN2" s="3">
         <v>39040326.558486894</v>
       </c>
-      <c r="AO2" s="3">
+      <c r="AO2" s="8">
         <v>39068326.273553595</v>
       </c>
-      <c r="AP2" s="3">
+      <c r="AP2" s="8">
         <v>39063869.033198185</v>
       </c>
-      <c r="AQ2" s="3">
+      <c r="AQ2" s="8">
         <v>39026581.216565117</v>
       </c>
       <c r="AR2" s="1"/>
       <c r="BA2" s="1"/>
     </row>
-    <row r="3" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:53" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -7678,13 +7688,13 @@
       <c r="AN3" s="3">
         <v>2146724.1413007383</v>
       </c>
-      <c r="AO3" s="3">
+      <c r="AO3" s="8">
         <v>2144731.9501677766</v>
       </c>
-      <c r="AP3" s="3">
+      <c r="AP3" s="8">
         <v>2140873.89278425</v>
       </c>
-      <c r="AQ3" s="3">
+      <c r="AQ3" s="8">
         <v>2135136.3061022386</v>
       </c>
       <c r="AR3" s="1"/>
@@ -7698,7 +7708,7 @@
       <c r="AZ3" s="1"/>
       <c r="BA3" s="1"/>
     </row>
-    <row r="4" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:53" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -7819,13 +7829,13 @@
       <c r="AN4" s="3">
         <v>31437014.705752946</v>
       </c>
-      <c r="AO4" s="3">
+      <c r="AO4" s="8">
         <v>31600358.847862095</v>
       </c>
-      <c r="AP4" s="3">
+      <c r="AP4" s="8">
         <v>31732042.879069552</v>
       </c>
-      <c r="AQ4" s="3">
+      <c r="AQ4" s="8">
         <v>31831745.359531693</v>
       </c>
       <c r="AR4" s="1"/>
@@ -7839,7 +7849,7 @@
       <c r="AZ4" s="1"/>
       <c r="BA4" s="1"/>
     </row>
-    <row r="5" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:53" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -7960,13 +7970,13 @@
       <c r="AN5" s="3">
         <v>13287485.448421441</v>
       </c>
-      <c r="AO5" s="3">
+      <c r="AO5" s="8">
         <v>13207634.766752521</v>
       </c>
-      <c r="AP5" s="3">
+      <c r="AP5" s="8">
         <v>13117340.706751939</v>
       </c>
-      <c r="AQ5" s="3">
+      <c r="AQ5" s="8">
         <v>13016775.529149299</v>
       </c>
       <c r="AR5" s="1"/>
@@ -7980,7 +7990,7 @@
       <c r="AZ5" s="1"/>
       <c r="BA5" s="1"/>
     </row>
-    <row r="6" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:53" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -8101,13 +8111,13 @@
       <c r="AN6" s="3">
         <v>14265721.699700261</v>
       </c>
-      <c r="AO6" s="3">
+      <c r="AO6" s="8">
         <v>14200555.557951571</v>
       </c>
-      <c r="AP6" s="3">
+      <c r="AP6" s="8">
         <v>14125779.963143177</v>
       </c>
-      <c r="AQ6" s="3">
+      <c r="AQ6" s="8">
         <v>14041447.402988765</v>
       </c>
       <c r="AR6" s="1"/>
@@ -8121,7 +8131,7 @@
       <c r="AZ6" s="1"/>
       <c r="BA6" s="1"/>
     </row>
-    <row r="7" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:53" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -8242,13 +8252,13 @@
       <c r="AN7" s="3">
         <v>13553400.243833221</v>
       </c>
-      <c r="AO7" s="3">
+      <c r="AO7" s="8">
         <v>13357233.887277355</v>
       </c>
-      <c r="AP7" s="3">
+      <c r="AP7" s="8">
         <v>13147362.557901746</v>
       </c>
-      <c r="AQ7" s="3">
+      <c r="AQ7" s="8">
         <v>12924767.705508748</v>
       </c>
       <c r="AR7" s="1"/>
@@ -8262,7 +8272,7 @@
       <c r="AZ7" s="1"/>
       <c r="BA7" s="1"/>
     </row>
-    <row r="8" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:53" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -8383,13 +8393,13 @@
       <c r="AN8" s="3">
         <v>110745859.18226515</v>
       </c>
-      <c r="AO8" s="3">
+      <c r="AO8" s="8">
         <v>112391297.95439307</v>
       </c>
-      <c r="AP8" s="3">
+      <c r="AP8" s="8">
         <v>113972048.10196456</v>
       </c>
-      <c r="AQ8" s="3">
+      <c r="AQ8" s="8">
         <v>115484498.61112067</v>
       </c>
       <c r="AR8" s="1"/>
@@ -8403,7 +8413,7 @@
       <c r="AZ8" s="1"/>
       <c r="BA8" s="1"/>
     </row>
-    <row r="9" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:53" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -8524,13 +8534,13 @@
       <c r="AN9" s="3">
         <v>16578627.337483011</v>
       </c>
-      <c r="AO9" s="3">
+      <c r="AO9" s="8">
         <v>16623378.506080491</v>
       </c>
-      <c r="AP9" s="3">
+      <c r="AP9" s="8">
         <v>16655248.108280804</v>
       </c>
-      <c r="AQ9" s="3">
+      <c r="AQ9" s="8">
         <v>16674163.118470317</v>
       </c>
       <c r="AR9" s="1"/>
@@ -8544,7 +8554,7 @@
       <c r="AZ9" s="1"/>
       <c r="BA9" s="1"/>
     </row>
-    <row r="10" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:53" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -8665,13 +8675,13 @@
       <c r="AN10" s="3">
         <v>29129089.254815012</v>
       </c>
-      <c r="AO10" s="3">
+      <c r="AO10" s="8">
         <v>29032756.68354601</v>
       </c>
-      <c r="AP10" s="3">
+      <c r="AP10" s="8">
         <v>28918420.518570106</v>
       </c>
-      <c r="AQ10" s="3">
+      <c r="AQ10" s="8">
         <v>28785705.486452498</v>
       </c>
       <c r="AR10" s="1"/>
@@ -8685,7 +8695,7 @@
       <c r="AZ10" s="1"/>
       <c r="BA10" s="1"/>
     </row>
-    <row r="11" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:53" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -8806,13 +8816,13 @@
       <c r="AN11" s="3">
         <v>39573123.135276109</v>
       </c>
-      <c r="AO11" s="3">
+      <c r="AO11" s="8">
         <v>39766621.130885266</v>
       </c>
-      <c r="AP11" s="3">
+      <c r="AP11" s="8">
         <v>39923539.624567889</v>
       </c>
-      <c r="AQ11" s="3">
+      <c r="AQ11" s="8">
         <v>40043402.839346029</v>
       </c>
       <c r="AR11" s="1"/>
@@ -8826,7 +8836,7 @@
       <c r="AZ11" s="1"/>
       <c r="BA11" s="1"/>
     </row>
-    <row r="12" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:53" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -8947,13 +8957,13 @@
       <c r="AN12" s="3">
         <v>54045016.031791776</v>
       </c>
-      <c r="AO12" s="3">
+      <c r="AO12" s="8">
         <v>53838124.814968467</v>
       </c>
-      <c r="AP12" s="3">
+      <c r="AP12" s="8">
         <v>53588240.249639936</v>
       </c>
-      <c r="AQ12" s="3">
+      <c r="AQ12" s="8">
         <v>53302411.682855897</v>
       </c>
       <c r="AR12" s="1"/>
@@ -8967,7 +8977,7 @@
       <c r="AZ12" s="1"/>
       <c r="BA12" s="1"/>
     </row>
-    <row r="13" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:53" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -9088,13 +9098,13 @@
       <c r="AN13" s="3">
         <v>270055463.98153633</v>
       </c>
-      <c r="AO13" s="3">
+      <c r="AO13" s="8">
         <v>272113984.87972218</v>
       </c>
-      <c r="AP13" s="3">
+      <c r="AP13" s="8">
         <v>273972659.82735729</v>
       </c>
-      <c r="AQ13" s="3">
+      <c r="AQ13" s="8">
         <v>275613896.37238318</v>
       </c>
       <c r="AR13" s="1"/>
@@ -9108,7 +9118,7 @@
       <c r="AZ13" s="1"/>
       <c r="BA13" s="1"/>
     </row>
-    <row r="14" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:53" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -9229,13 +9239,13 @@
       <c r="AN14" s="3">
         <v>63971959.593671836</v>
       </c>
-      <c r="AO14" s="3">
+      <c r="AO14" s="8">
         <v>63903195.145321652</v>
       </c>
-      <c r="AP14" s="3">
+      <c r="AP14" s="8">
         <v>63802164.360471934</v>
       </c>
-      <c r="AQ14" s="3">
+      <c r="AQ14" s="8">
         <v>63587427.648839027</v>
       </c>
       <c r="AR14" s="1"/>
@@ -9249,7 +9259,7 @@
       <c r="AZ14" s="1"/>
       <c r="BA14" s="1"/>
     </row>
-    <row r="15" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:53" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -9370,13 +9380,13 @@
       <c r="AN15" s="3">
         <v>14107867.164276989</v>
       </c>
-      <c r="AO15" s="3">
+      <c r="AO15" s="8">
         <v>14352516.997082341</v>
       </c>
-      <c r="AP15" s="3">
+      <c r="AP15" s="8">
         <v>14596983.955927115</v>
       </c>
-      <c r="AQ15" s="3">
+      <c r="AQ15" s="8">
         <v>14840887.710247327</v>
       </c>
       <c r="AR15" s="1"/>
@@ -9390,7 +9400,7 @@
       <c r="AZ15" s="1"/>
       <c r="BA15" s="1"/>
     </row>
-    <row r="16" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:53" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -9511,13 +9521,13 @@
       <c r="AN16" s="3">
         <v>53684010.516259119</v>
       </c>
-      <c r="AO16" s="3">
+      <c r="AO16" s="8">
         <v>53756716.160416402</v>
       </c>
-      <c r="AP16" s="3">
+      <c r="AP16" s="8">
         <v>53784265.291943103</v>
       </c>
-      <c r="AQ16" s="3">
+      <c r="AQ16" s="8">
         <v>53766233.15622925</v>
       </c>
       <c r="AR16" s="1"/>
@@ -9531,7 +9541,7 @@
       <c r="AZ16" s="1"/>
       <c r="BA16" s="1"/>
     </row>
-    <row r="17" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:53" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -9652,13 +9662,13 @@
       <c r="AN17" s="3">
         <v>106613655.04060154</v>
       </c>
-      <c r="AO17" s="3">
+      <c r="AO17" s="8">
         <v>106929577.027504</v>
       </c>
-      <c r="AP17" s="3">
+      <c r="AP17" s="8">
         <v>107163218.2036408</v>
       </c>
-      <c r="AQ17" s="3">
+      <c r="AQ17" s="8">
         <v>107312975.17518334</v>
       </c>
       <c r="AR17" s="1"/>
@@ -9696,7 +9706,7 @@
       </c>
       <c r="BA17" s="1"/>
     </row>
-    <row r="18" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:53" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -9817,13 +9827,13 @@
       <c r="AN18" s="3">
         <v>1643639648.7317958</v>
       </c>
-      <c r="AO18" s="3">
+      <c r="AO18" s="8">
         <v>1668656235.7054052</v>
       </c>
-      <c r="AP18" s="3">
+      <c r="AP18" s="8">
         <v>1692811813.5623071</v>
       </c>
-      <c r="AQ18" s="3">
+      <c r="AQ18" s="8">
         <v>1716138414.5173135</v>
       </c>
       <c r="AR18" s="1"/>
@@ -9837,7 +9847,7 @@
       <c r="AZ18" s="1"/>
       <c r="BA18" s="1"/>
     </row>
-    <row r="19" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:53" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -9975,7 +9985,7 @@
       <c r="AZ19" s="1"/>
       <c r="BA19" s="1"/>
     </row>
-    <row r="20" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:53" x14ac:dyDescent="0.45">
       <c r="C20" s="6">
         <f>SUM(C2:C18)</f>
         <v>903550899.99999988</v>
@@ -10073,7 +10083,7 @@
         <v>1998372092.499999</v>
       </c>
     </row>
-    <row r="21" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:53" x14ac:dyDescent="0.45">
       <c r="C21" t="b">
         <f>C20=C19</f>
         <v>1</v>
@@ -10155,7 +10165,7 @@
         <v>9.14851E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:53" x14ac:dyDescent="0.45">
       <c r="D23">
         <v>2005</v>
       </c>
@@ -10181,7 +10191,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="24" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:53" x14ac:dyDescent="0.45">
       <c r="B24" t="s">
         <v>25</v>
       </c>
@@ -10246,34 +10256,34 @@
         <v>7.0762199999999997E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:53" x14ac:dyDescent="0.45">
       <c r="D25" s="7" t="s">
         <v>30</v>
       </c>
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
     </row>
-    <row r="28" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:53" x14ac:dyDescent="0.45">
       <c r="D28" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:53" x14ac:dyDescent="0.45">
       <c r="D29" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:53" x14ac:dyDescent="0.45">
       <c r="B30" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:53" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:53" x14ac:dyDescent="0.45">
       <c r="B31" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="41" spans="26:43" x14ac:dyDescent="0.3">
+    <row r="41" spans="26:43" x14ac:dyDescent="0.45">
       <c r="Z41" s="1"/>
       <c r="AA41" s="1"/>
       <c r="AB41" s="1"/>
@@ -10293,7 +10303,7 @@
       <c r="AP41" s="1"/>
       <c r="AQ41" s="1"/>
     </row>
-    <row r="42" spans="26:43" x14ac:dyDescent="0.3">
+    <row r="42" spans="26:43" x14ac:dyDescent="0.45">
       <c r="Z42" s="1"/>
       <c r="AA42" s="1"/>
       <c r="AB42" s="1"/>
@@ -10313,7 +10323,7 @@
       <c r="AP42" s="1"/>
       <c r="AQ42" s="1"/>
     </row>
-    <row r="43" spans="26:43" x14ac:dyDescent="0.3">
+    <row r="43" spans="26:43" x14ac:dyDescent="0.45">
       <c r="Z43" s="1"/>
       <c r="AA43" s="1"/>
       <c r="AB43" s="1"/>
@@ -10333,7 +10343,7 @@
       <c r="AP43" s="1"/>
       <c r="AQ43" s="1"/>
     </row>
-    <row r="44" spans="26:43" x14ac:dyDescent="0.3">
+    <row r="44" spans="26:43" x14ac:dyDescent="0.45">
       <c r="Z44" s="1"/>
       <c r="AA44" s="1"/>
       <c r="AB44" s="1"/>
@@ -10353,7 +10363,7 @@
       <c r="AP44" s="1"/>
       <c r="AQ44" s="1"/>
     </row>
-    <row r="45" spans="26:43" x14ac:dyDescent="0.3">
+    <row r="45" spans="26:43" x14ac:dyDescent="0.45">
       <c r="Z45" s="1"/>
       <c r="AA45" s="1"/>
       <c r="AB45" s="1"/>
@@ -10373,7 +10383,7 @@
       <c r="AP45" s="1"/>
       <c r="AQ45" s="1"/>
     </row>
-    <row r="46" spans="26:43" x14ac:dyDescent="0.3">
+    <row r="46" spans="26:43" x14ac:dyDescent="0.45">
       <c r="Z46" s="1"/>
       <c r="AA46" s="1"/>
       <c r="AB46" s="1"/>
@@ -10393,7 +10403,7 @@
       <c r="AP46" s="1"/>
       <c r="AQ46" s="1"/>
     </row>
-    <row r="47" spans="26:43" x14ac:dyDescent="0.3">
+    <row r="47" spans="26:43" x14ac:dyDescent="0.45">
       <c r="Z47" s="1"/>
       <c r="AA47" s="1"/>
       <c r="AB47" s="1"/>
@@ -10413,7 +10423,7 @@
       <c r="AP47" s="1"/>
       <c r="AQ47" s="1"/>
     </row>
-    <row r="48" spans="26:43" x14ac:dyDescent="0.3">
+    <row r="48" spans="26:43" x14ac:dyDescent="0.45">
       <c r="Z48" s="1"/>
       <c r="AA48" s="1"/>
       <c r="AB48" s="1"/>
@@ -10433,7 +10443,7 @@
       <c r="AP48" s="1"/>
       <c r="AQ48" s="1"/>
     </row>
-    <row r="49" spans="26:43" x14ac:dyDescent="0.3">
+    <row r="49" spans="26:43" x14ac:dyDescent="0.45">
       <c r="Z49" s="1"/>
       <c r="AA49" s="1"/>
       <c r="AB49" s="1"/>
@@ -10453,7 +10463,7 @@
       <c r="AP49" s="1"/>
       <c r="AQ49" s="1"/>
     </row>
-    <row r="50" spans="26:43" x14ac:dyDescent="0.3">
+    <row r="50" spans="26:43" x14ac:dyDescent="0.45">
       <c r="Z50" s="1"/>
       <c r="AA50" s="1"/>
       <c r="AB50" s="1"/>
@@ -10473,7 +10483,7 @@
       <c r="AP50" s="1"/>
       <c r="AQ50" s="1"/>
     </row>
-    <row r="51" spans="26:43" x14ac:dyDescent="0.3">
+    <row r="51" spans="26:43" x14ac:dyDescent="0.45">
       <c r="Z51" s="1"/>
       <c r="AA51" s="1"/>
       <c r="AB51" s="1"/>
@@ -10493,7 +10503,7 @@
       <c r="AP51" s="1"/>
       <c r="AQ51" s="1"/>
     </row>
-    <row r="52" spans="26:43" x14ac:dyDescent="0.3">
+    <row r="52" spans="26:43" x14ac:dyDescent="0.45">
       <c r="Z52" s="1"/>
       <c r="AA52" s="1"/>
       <c r="AB52" s="1"/>
@@ -10513,7 +10523,7 @@
       <c r="AP52" s="1"/>
       <c r="AQ52" s="1"/>
     </row>
-    <row r="53" spans="26:43" x14ac:dyDescent="0.3">
+    <row r="53" spans="26:43" x14ac:dyDescent="0.45">
       <c r="Z53" s="1"/>
       <c r="AA53" s="1"/>
       <c r="AB53" s="1"/>
@@ -10533,7 +10543,7 @@
       <c r="AP53" s="1"/>
       <c r="AQ53" s="1"/>
     </row>
-    <row r="54" spans="26:43" x14ac:dyDescent="0.3">
+    <row r="54" spans="26:43" x14ac:dyDescent="0.45">
       <c r="Z54" s="1"/>
       <c r="AA54" s="1"/>
       <c r="AB54" s="1"/>
@@ -10553,7 +10563,7 @@
       <c r="AP54" s="1"/>
       <c r="AQ54" s="1"/>
     </row>
-    <row r="55" spans="26:43" x14ac:dyDescent="0.3">
+    <row r="55" spans="26:43" x14ac:dyDescent="0.45">
       <c r="Z55" s="1"/>
       <c r="AA55" s="1"/>
       <c r="AB55" s="1"/>
@@ -10573,7 +10583,7 @@
       <c r="AP55" s="1"/>
       <c r="AQ55" s="1"/>
     </row>
-    <row r="56" spans="26:43" x14ac:dyDescent="0.3">
+    <row r="56" spans="26:43" x14ac:dyDescent="0.45">
       <c r="Z56" s="1"/>
       <c r="AA56" s="1"/>
       <c r="AB56" s="1"/>
@@ -10593,7 +10603,7 @@
       <c r="AP56" s="1"/>
       <c r="AQ56" s="1"/>
     </row>
-    <row r="57" spans="26:43" x14ac:dyDescent="0.3">
+    <row r="57" spans="26:43" x14ac:dyDescent="0.45">
       <c r="Z57" s="1"/>
       <c r="AA57" s="1"/>
       <c r="AB57" s="1"/>
@@ -10613,7 +10623,7 @@
       <c r="AP57" s="1"/>
       <c r="AQ57" s="1"/>
     </row>
-    <row r="59" spans="26:43" x14ac:dyDescent="0.3">
+    <row r="59" spans="26:43" x14ac:dyDescent="0.45">
       <c r="Z59" s="5"/>
       <c r="AA59" s="5"/>
       <c r="AB59" s="5"/>
@@ -10633,7 +10643,7 @@
       <c r="AP59" s="5"/>
       <c r="AQ59" s="5"/>
     </row>
-    <row r="60" spans="26:43" x14ac:dyDescent="0.3">
+    <row r="60" spans="26:43" x14ac:dyDescent="0.45">
       <c r="Z60" s="5"/>
       <c r="AA60" s="5"/>
       <c r="AB60" s="5"/>
@@ -10653,7 +10663,7 @@
       <c r="AP60" s="5"/>
       <c r="AQ60" s="5"/>
     </row>
-    <row r="61" spans="26:43" x14ac:dyDescent="0.3">
+    <row r="61" spans="26:43" x14ac:dyDescent="0.45">
       <c r="Z61" s="5"/>
       <c r="AA61" s="5"/>
       <c r="AB61" s="5"/>
@@ -10673,7 +10683,7 @@
       <c r="AP61" s="5"/>
       <c r="AQ61" s="5"/>
     </row>
-    <row r="62" spans="26:43" x14ac:dyDescent="0.3">
+    <row r="62" spans="26:43" x14ac:dyDescent="0.45">
       <c r="Z62" s="5"/>
       <c r="AA62" s="5"/>
       <c r="AB62" s="5"/>
@@ -10693,7 +10703,7 @@
       <c r="AP62" s="5"/>
       <c r="AQ62" s="5"/>
     </row>
-    <row r="63" spans="26:43" x14ac:dyDescent="0.3">
+    <row r="63" spans="26:43" x14ac:dyDescent="0.45">
       <c r="Z63" s="5"/>
       <c r="AA63" s="5"/>
       <c r="AB63" s="5"/>
@@ -10713,7 +10723,7 @@
       <c r="AP63" s="5"/>
       <c r="AQ63" s="5"/>
     </row>
-    <row r="64" spans="26:43" x14ac:dyDescent="0.3">
+    <row r="64" spans="26:43" x14ac:dyDescent="0.45">
       <c r="Z64" s="5"/>
       <c r="AA64" s="5"/>
       <c r="AB64" s="5"/>
@@ -10733,7 +10743,7 @@
       <c r="AP64" s="5"/>
       <c r="AQ64" s="5"/>
     </row>
-    <row r="65" spans="26:43" x14ac:dyDescent="0.3">
+    <row r="65" spans="26:43" x14ac:dyDescent="0.45">
       <c r="Z65" s="5"/>
       <c r="AA65" s="5"/>
       <c r="AB65" s="5"/>
@@ -10753,7 +10763,7 @@
       <c r="AP65" s="5"/>
       <c r="AQ65" s="5"/>
     </row>
-    <row r="66" spans="26:43" x14ac:dyDescent="0.3">
+    <row r="66" spans="26:43" x14ac:dyDescent="0.45">
       <c r="Z66" s="5"/>
       <c r="AA66" s="5"/>
       <c r="AB66" s="5"/>
@@ -10773,7 +10783,7 @@
       <c r="AP66" s="5"/>
       <c r="AQ66" s="5"/>
     </row>
-    <row r="67" spans="26:43" x14ac:dyDescent="0.3">
+    <row r="67" spans="26:43" x14ac:dyDescent="0.45">
       <c r="Z67" s="5"/>
       <c r="AA67" s="5"/>
       <c r="AB67" s="5"/>
@@ -10793,7 +10803,7 @@
       <c r="AP67" s="5"/>
       <c r="AQ67" s="5"/>
     </row>
-    <row r="68" spans="26:43" x14ac:dyDescent="0.3">
+    <row r="68" spans="26:43" x14ac:dyDescent="0.45">
       <c r="Z68" s="5"/>
       <c r="AA68" s="5"/>
       <c r="AB68" s="5"/>
@@ -10813,7 +10823,7 @@
       <c r="AP68" s="5"/>
       <c r="AQ68" s="5"/>
     </row>
-    <row r="69" spans="26:43" x14ac:dyDescent="0.3">
+    <row r="69" spans="26:43" x14ac:dyDescent="0.45">
       <c r="Z69" s="5"/>
       <c r="AA69" s="5"/>
       <c r="AB69" s="5"/>
@@ -10833,7 +10843,7 @@
       <c r="AP69" s="5"/>
       <c r="AQ69" s="5"/>
     </row>
-    <row r="70" spans="26:43" x14ac:dyDescent="0.3">
+    <row r="70" spans="26:43" x14ac:dyDescent="0.45">
       <c r="Z70" s="5"/>
       <c r="AA70" s="5"/>
       <c r="AB70" s="5"/>
@@ -10853,7 +10863,7 @@
       <c r="AP70" s="5"/>
       <c r="AQ70" s="5"/>
     </row>
-    <row r="71" spans="26:43" x14ac:dyDescent="0.3">
+    <row r="71" spans="26:43" x14ac:dyDescent="0.45">
       <c r="Z71" s="5"/>
       <c r="AA71" s="5"/>
       <c r="AB71" s="5"/>
@@ -10873,7 +10883,7 @@
       <c r="AP71" s="5"/>
       <c r="AQ71" s="5"/>
     </row>
-    <row r="72" spans="26:43" x14ac:dyDescent="0.3">
+    <row r="72" spans="26:43" x14ac:dyDescent="0.45">
       <c r="Z72" s="5"/>
       <c r="AA72" s="5"/>
       <c r="AB72" s="5"/>
@@ -10893,7 +10903,7 @@
       <c r="AP72" s="5"/>
       <c r="AQ72" s="5"/>
     </row>
-    <row r="73" spans="26:43" x14ac:dyDescent="0.3">
+    <row r="73" spans="26:43" x14ac:dyDescent="0.45">
       <c r="Z73" s="5"/>
       <c r="AA73" s="5"/>
       <c r="AB73" s="5"/>
@@ -10913,7 +10923,7 @@
       <c r="AP73" s="5"/>
       <c r="AQ73" s="5"/>
     </row>
-    <row r="74" spans="26:43" x14ac:dyDescent="0.3">
+    <row r="74" spans="26:43" x14ac:dyDescent="0.45">
       <c r="Z74" s="5"/>
       <c r="AA74" s="5"/>
       <c r="AB74" s="5"/>
@@ -10933,7 +10943,7 @@
       <c r="AP74" s="5"/>
       <c r="AQ74" s="5"/>
     </row>
-    <row r="75" spans="26:43" x14ac:dyDescent="0.3">
+    <row r="75" spans="26:43" x14ac:dyDescent="0.45">
       <c r="Z75" s="5"/>
       <c r="AA75" s="5"/>
       <c r="AB75" s="5"/>
@@ -10953,7 +10963,7 @@
       <c r="AP75" s="5"/>
       <c r="AQ75" s="5"/>
     </row>
-    <row r="76" spans="26:43" x14ac:dyDescent="0.3">
+    <row r="76" spans="26:43" x14ac:dyDescent="0.45">
       <c r="Z76" s="4"/>
       <c r="AA76" s="4"/>
       <c r="AB76" s="4"/>
@@ -10973,7 +10983,7 @@
       <c r="AP76" s="4"/>
       <c r="AQ76" s="4"/>
     </row>
-    <row r="77" spans="26:43" x14ac:dyDescent="0.3">
+    <row r="77" spans="26:43" x14ac:dyDescent="0.45">
       <c r="Z77" s="4"/>
       <c r="AA77" s="4"/>
       <c r="AB77" s="4"/>
@@ -10993,7 +11003,7 @@
       <c r="AP77" s="4"/>
       <c r="AQ77" s="4"/>
     </row>
-    <row r="78" spans="26:43" x14ac:dyDescent="0.3">
+    <row r="78" spans="26:43" x14ac:dyDescent="0.45">
       <c r="Z78" s="4"/>
       <c r="AA78" s="4"/>
       <c r="AB78" s="4"/>
@@ -11013,7 +11023,7 @@
       <c r="AP78" s="4"/>
       <c r="AQ78" s="4"/>
     </row>
-    <row r="79" spans="26:43" x14ac:dyDescent="0.3">
+    <row r="79" spans="26:43" x14ac:dyDescent="0.45">
       <c r="Z79" s="4"/>
       <c r="AA79" s="4"/>
       <c r="AB79" s="4"/>
@@ -11033,7 +11043,7 @@
       <c r="AP79" s="4"/>
       <c r="AQ79" s="4"/>
     </row>
-    <row r="80" spans="26:43" x14ac:dyDescent="0.3">
+    <row r="80" spans="26:43" x14ac:dyDescent="0.45">
       <c r="Z80" s="4"/>
       <c r="AA80" s="4"/>
       <c r="AB80" s="4"/>
@@ -11053,7 +11063,7 @@
       <c r="AP80" s="4"/>
       <c r="AQ80" s="4"/>
     </row>
-    <row r="81" spans="26:43" x14ac:dyDescent="0.3">
+    <row r="81" spans="26:43" x14ac:dyDescent="0.45">
       <c r="Z81" s="4"/>
       <c r="AA81" s="4"/>
       <c r="AB81" s="4"/>
@@ -11073,7 +11083,7 @@
       <c r="AP81" s="4"/>
       <c r="AQ81" s="4"/>
     </row>
-    <row r="82" spans="26:43" x14ac:dyDescent="0.3">
+    <row r="82" spans="26:43" x14ac:dyDescent="0.45">
       <c r="Z82" s="4"/>
       <c r="AA82" s="4"/>
       <c r="AB82" s="4"/>
@@ -11093,7 +11103,7 @@
       <c r="AP82" s="4"/>
       <c r="AQ82" s="4"/>
     </row>
-    <row r="83" spans="26:43" x14ac:dyDescent="0.3">
+    <row r="83" spans="26:43" x14ac:dyDescent="0.45">
       <c r="Z83" s="4"/>
       <c r="AA83" s="4"/>
       <c r="AB83" s="4"/>
@@ -11113,7 +11123,7 @@
       <c r="AP83" s="4"/>
       <c r="AQ83" s="4"/>
     </row>
-    <row r="84" spans="26:43" x14ac:dyDescent="0.3">
+    <row r="84" spans="26:43" x14ac:dyDescent="0.45">
       <c r="Z84" s="4"/>
       <c r="AA84" s="4"/>
       <c r="AB84" s="4"/>
@@ -11133,7 +11143,7 @@
       <c r="AP84" s="4"/>
       <c r="AQ84" s="4"/>
     </row>
-    <row r="85" spans="26:43" x14ac:dyDescent="0.3">
+    <row r="85" spans="26:43" x14ac:dyDescent="0.45">
       <c r="Z85" s="4"/>
       <c r="AA85" s="4"/>
       <c r="AB85" s="4"/>
@@ -11153,7 +11163,7 @@
       <c r="AP85" s="4"/>
       <c r="AQ85" s="4"/>
     </row>
-    <row r="86" spans="26:43" x14ac:dyDescent="0.3">
+    <row r="86" spans="26:43" x14ac:dyDescent="0.45">
       <c r="Z86" s="4"/>
       <c r="AA86" s="4"/>
       <c r="AB86" s="4"/>
@@ -11173,7 +11183,7 @@
       <c r="AP86" s="4"/>
       <c r="AQ86" s="4"/>
     </row>
-    <row r="87" spans="26:43" x14ac:dyDescent="0.3">
+    <row r="87" spans="26:43" x14ac:dyDescent="0.45">
       <c r="Z87" s="4"/>
       <c r="AA87" s="4"/>
       <c r="AB87" s="4"/>
@@ -11193,7 +11203,7 @@
       <c r="AP87" s="4"/>
       <c r="AQ87" s="4"/>
     </row>
-    <row r="88" spans="26:43" x14ac:dyDescent="0.3">
+    <row r="88" spans="26:43" x14ac:dyDescent="0.45">
       <c r="Z88" s="4"/>
       <c r="AA88" s="4"/>
       <c r="AB88" s="4"/>
@@ -11225,24 +11235,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AS77"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomRight" activeCell="B4" sqref="B4:C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="42.625" customWidth="1"/>
-    <col min="2" max="2" width="25.625" customWidth="1"/>
+    <col min="1" max="1" width="42.58203125" customWidth="1"/>
+    <col min="2" max="2" width="25.58203125" customWidth="1"/>
     <col min="3" max="4" width="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="25" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="25" width="14.58203125" bestFit="1" customWidth="1"/>
     <col min="26" max="43" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="44" max="45" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="44" max="45" width="14.58203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:45" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>51</v>
       </c>
@@ -11373,7 +11383,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="2" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:45" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -11506,7 +11516,7 @@
       <c r="AR2" s="1"/>
       <c r="AS2" s="1"/>
     </row>
-    <row r="3" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:45" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -11639,7 +11649,7 @@
       <c r="AR3" s="1"/>
       <c r="AS3" s="1"/>
     </row>
-    <row r="4" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:45" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -11772,7 +11782,7 @@
       <c r="AR4" s="1"/>
       <c r="AS4" s="1"/>
     </row>
-    <row r="5" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:45" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -11905,7 +11915,7 @@
       <c r="AR5" s="1"/>
       <c r="AS5" s="1"/>
     </row>
-    <row r="6" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:45" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -12038,7 +12048,7 @@
       <c r="AR6" s="1"/>
       <c r="AS6" s="1"/>
     </row>
-    <row r="7" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:45" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -12171,7 +12181,7 @@
       <c r="AR7" s="1"/>
       <c r="AS7" s="1"/>
     </row>
-    <row r="8" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:45" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -12304,7 +12314,7 @@
       <c r="AR8" s="1"/>
       <c r="AS8" s="1"/>
     </row>
-    <row r="9" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:45" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -12437,7 +12447,7 @@
       <c r="AR9" s="1"/>
       <c r="AS9" s="1"/>
     </row>
-    <row r="10" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:45" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -12570,7 +12580,7 @@
       <c r="AR10" s="1"/>
       <c r="AS10" s="1"/>
     </row>
-    <row r="11" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:45" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -12703,7 +12713,7 @@
       <c r="AR11" s="1"/>
       <c r="AS11" s="1"/>
     </row>
-    <row r="12" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:45" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -12836,7 +12846,7 @@
       <c r="AR12" s="1"/>
       <c r="AS12" s="1"/>
     </row>
-    <row r="13" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:45" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -12969,7 +12979,7 @@
       <c r="AR13" s="1"/>
       <c r="AS13" s="1"/>
     </row>
-    <row r="14" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:45" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -13102,7 +13112,7 @@
       <c r="AR14" s="1"/>
       <c r="AS14" s="1"/>
     </row>
-    <row r="15" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:45" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -13235,7 +13245,7 @@
       <c r="AR15" s="1"/>
       <c r="AS15" s="1"/>
     </row>
-    <row r="16" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:45" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -13368,7 +13378,7 @@
       <c r="AR16" s="1"/>
       <c r="AS16" s="1"/>
     </row>
-    <row r="17" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:45" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -13501,7 +13511,7 @@
       <c r="AR17" s="1"/>
       <c r="AS17" s="1"/>
     </row>
-    <row r="18" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:45" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -13634,7 +13644,7 @@
       <c r="AR18" s="1"/>
       <c r="AS18" s="1"/>
     </row>
-    <row r="30" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:45" x14ac:dyDescent="0.45">
       <c r="Z30" s="1"/>
       <c r="AA30" s="1"/>
       <c r="AB30" s="1"/>
@@ -13654,7 +13664,7 @@
       <c r="AP30" s="1"/>
       <c r="AQ30" s="1"/>
     </row>
-    <row r="31" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:45" x14ac:dyDescent="0.45">
       <c r="Z31" s="1"/>
       <c r="AA31" s="1"/>
       <c r="AB31" s="1"/>
@@ -13674,7 +13684,7 @@
       <c r="AP31" s="1"/>
       <c r="AQ31" s="1"/>
     </row>
-    <row r="32" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:45" x14ac:dyDescent="0.45">
       <c r="Z32" s="1"/>
       <c r="AA32" s="1"/>
       <c r="AB32" s="1"/>
@@ -13694,7 +13704,7 @@
       <c r="AP32" s="1"/>
       <c r="AQ32" s="1"/>
     </row>
-    <row r="33" spans="26:43" x14ac:dyDescent="0.3">
+    <row r="33" spans="26:43" x14ac:dyDescent="0.45">
       <c r="Z33" s="1"/>
       <c r="AA33" s="1"/>
       <c r="AB33" s="1"/>
@@ -13714,7 +13724,7 @@
       <c r="AP33" s="1"/>
       <c r="AQ33" s="1"/>
     </row>
-    <row r="34" spans="26:43" x14ac:dyDescent="0.3">
+    <row r="34" spans="26:43" x14ac:dyDescent="0.45">
       <c r="Z34" s="1"/>
       <c r="AA34" s="1"/>
       <c r="AB34" s="1"/>
@@ -13734,7 +13744,7 @@
       <c r="AP34" s="1"/>
       <c r="AQ34" s="1"/>
     </row>
-    <row r="35" spans="26:43" x14ac:dyDescent="0.3">
+    <row r="35" spans="26:43" x14ac:dyDescent="0.45">
       <c r="Z35" s="1"/>
       <c r="AA35" s="1"/>
       <c r="AB35" s="1"/>
@@ -13754,7 +13764,7 @@
       <c r="AP35" s="1"/>
       <c r="AQ35" s="1"/>
     </row>
-    <row r="36" spans="26:43" x14ac:dyDescent="0.3">
+    <row r="36" spans="26:43" x14ac:dyDescent="0.45">
       <c r="Z36" s="1"/>
       <c r="AA36" s="1"/>
       <c r="AB36" s="1"/>
@@ -13774,7 +13784,7 @@
       <c r="AP36" s="1"/>
       <c r="AQ36" s="1"/>
     </row>
-    <row r="37" spans="26:43" x14ac:dyDescent="0.3">
+    <row r="37" spans="26:43" x14ac:dyDescent="0.45">
       <c r="Z37" s="1"/>
       <c r="AA37" s="1"/>
       <c r="AB37" s="1"/>
@@ -13794,7 +13804,7 @@
       <c r="AP37" s="1"/>
       <c r="AQ37" s="1"/>
     </row>
-    <row r="38" spans="26:43" x14ac:dyDescent="0.3">
+    <row r="38" spans="26:43" x14ac:dyDescent="0.45">
       <c r="Z38" s="1"/>
       <c r="AA38" s="1"/>
       <c r="AB38" s="1"/>
@@ -13814,7 +13824,7 @@
       <c r="AP38" s="1"/>
       <c r="AQ38" s="1"/>
     </row>
-    <row r="39" spans="26:43" x14ac:dyDescent="0.3">
+    <row r="39" spans="26:43" x14ac:dyDescent="0.45">
       <c r="Z39" s="1"/>
       <c r="AA39" s="1"/>
       <c r="AB39" s="1"/>
@@ -13834,7 +13844,7 @@
       <c r="AP39" s="1"/>
       <c r="AQ39" s="1"/>
     </row>
-    <row r="40" spans="26:43" x14ac:dyDescent="0.3">
+    <row r="40" spans="26:43" x14ac:dyDescent="0.45">
       <c r="Z40" s="1"/>
       <c r="AA40" s="1"/>
       <c r="AB40" s="1"/>
@@ -13854,7 +13864,7 @@
       <c r="AP40" s="1"/>
       <c r="AQ40" s="1"/>
     </row>
-    <row r="41" spans="26:43" x14ac:dyDescent="0.3">
+    <row r="41" spans="26:43" x14ac:dyDescent="0.45">
       <c r="Z41" s="1"/>
       <c r="AA41" s="1"/>
       <c r="AB41" s="1"/>
@@ -13874,7 +13884,7 @@
       <c r="AP41" s="1"/>
       <c r="AQ41" s="1"/>
     </row>
-    <row r="42" spans="26:43" x14ac:dyDescent="0.3">
+    <row r="42" spans="26:43" x14ac:dyDescent="0.45">
       <c r="Z42" s="1"/>
       <c r="AA42" s="1"/>
       <c r="AB42" s="1"/>
@@ -13894,7 +13904,7 @@
       <c r="AP42" s="1"/>
       <c r="AQ42" s="1"/>
     </row>
-    <row r="43" spans="26:43" x14ac:dyDescent="0.3">
+    <row r="43" spans="26:43" x14ac:dyDescent="0.45">
       <c r="Z43" s="1"/>
       <c r="AA43" s="1"/>
       <c r="AB43" s="1"/>
@@ -13914,7 +13924,7 @@
       <c r="AP43" s="1"/>
       <c r="AQ43" s="1"/>
     </row>
-    <row r="44" spans="26:43" x14ac:dyDescent="0.3">
+    <row r="44" spans="26:43" x14ac:dyDescent="0.45">
       <c r="Z44" s="1"/>
       <c r="AA44" s="1"/>
       <c r="AB44" s="1"/>
@@ -13934,7 +13944,7 @@
       <c r="AP44" s="1"/>
       <c r="AQ44" s="1"/>
     </row>
-    <row r="45" spans="26:43" x14ac:dyDescent="0.3">
+    <row r="45" spans="26:43" x14ac:dyDescent="0.45">
       <c r="Z45" s="1"/>
       <c r="AA45" s="1"/>
       <c r="AB45" s="1"/>
@@ -13954,7 +13964,7 @@
       <c r="AP45" s="1"/>
       <c r="AQ45" s="1"/>
     </row>
-    <row r="46" spans="26:43" x14ac:dyDescent="0.3">
+    <row r="46" spans="26:43" x14ac:dyDescent="0.45">
       <c r="Z46" s="1"/>
       <c r="AA46" s="1"/>
       <c r="AB46" s="1"/>
@@ -13974,7 +13984,7 @@
       <c r="AP46" s="1"/>
       <c r="AQ46" s="1"/>
     </row>
-    <row r="48" spans="26:43" x14ac:dyDescent="0.3">
+    <row r="48" spans="26:43" x14ac:dyDescent="0.45">
       <c r="Z48" s="5"/>
       <c r="AA48" s="5"/>
       <c r="AB48" s="5"/>
@@ -13994,7 +14004,7 @@
       <c r="AP48" s="5"/>
       <c r="AQ48" s="5"/>
     </row>
-    <row r="49" spans="26:43" x14ac:dyDescent="0.3">
+    <row r="49" spans="26:43" x14ac:dyDescent="0.45">
       <c r="Z49" s="5"/>
       <c r="AA49" s="5"/>
       <c r="AB49" s="5"/>
@@ -14014,7 +14024,7 @@
       <c r="AP49" s="5"/>
       <c r="AQ49" s="5"/>
     </row>
-    <row r="50" spans="26:43" x14ac:dyDescent="0.3">
+    <row r="50" spans="26:43" x14ac:dyDescent="0.45">
       <c r="Z50" s="5"/>
       <c r="AA50" s="5"/>
       <c r="AB50" s="5"/>
@@ -14034,7 +14044,7 @@
       <c r="AP50" s="5"/>
       <c r="AQ50" s="5"/>
     </row>
-    <row r="51" spans="26:43" x14ac:dyDescent="0.3">
+    <row r="51" spans="26:43" x14ac:dyDescent="0.45">
       <c r="Z51" s="5"/>
       <c r="AA51" s="5"/>
       <c r="AB51" s="5"/>
@@ -14054,7 +14064,7 @@
       <c r="AP51" s="5"/>
       <c r="AQ51" s="5"/>
     </row>
-    <row r="52" spans="26:43" x14ac:dyDescent="0.3">
+    <row r="52" spans="26:43" x14ac:dyDescent="0.45">
       <c r="Z52" s="5"/>
       <c r="AA52" s="5"/>
       <c r="AB52" s="5"/>
@@ -14074,7 +14084,7 @@
       <c r="AP52" s="5"/>
       <c r="AQ52" s="5"/>
     </row>
-    <row r="53" spans="26:43" x14ac:dyDescent="0.3">
+    <row r="53" spans="26:43" x14ac:dyDescent="0.45">
       <c r="Z53" s="5"/>
       <c r="AA53" s="5"/>
       <c r="AB53" s="5"/>
@@ -14094,7 +14104,7 @@
       <c r="AP53" s="5"/>
       <c r="AQ53" s="5"/>
     </row>
-    <row r="54" spans="26:43" x14ac:dyDescent="0.3">
+    <row r="54" spans="26:43" x14ac:dyDescent="0.45">
       <c r="Z54" s="5"/>
       <c r="AA54" s="5"/>
       <c r="AB54" s="5"/>
@@ -14114,7 +14124,7 @@
       <c r="AP54" s="5"/>
       <c r="AQ54" s="5"/>
     </row>
-    <row r="55" spans="26:43" x14ac:dyDescent="0.3">
+    <row r="55" spans="26:43" x14ac:dyDescent="0.45">
       <c r="Z55" s="5"/>
       <c r="AA55" s="5"/>
       <c r="AB55" s="5"/>
@@ -14134,7 +14144,7 @@
       <c r="AP55" s="5"/>
       <c r="AQ55" s="5"/>
     </row>
-    <row r="56" spans="26:43" x14ac:dyDescent="0.3">
+    <row r="56" spans="26:43" x14ac:dyDescent="0.45">
       <c r="Z56" s="5"/>
       <c r="AA56" s="5"/>
       <c r="AB56" s="5"/>
@@ -14154,7 +14164,7 @@
       <c r="AP56" s="5"/>
       <c r="AQ56" s="5"/>
     </row>
-    <row r="57" spans="26:43" x14ac:dyDescent="0.3">
+    <row r="57" spans="26:43" x14ac:dyDescent="0.45">
       <c r="Z57" s="5"/>
       <c r="AA57" s="5"/>
       <c r="AB57" s="5"/>
@@ -14174,7 +14184,7 @@
       <c r="AP57" s="5"/>
       <c r="AQ57" s="5"/>
     </row>
-    <row r="58" spans="26:43" x14ac:dyDescent="0.3">
+    <row r="58" spans="26:43" x14ac:dyDescent="0.45">
       <c r="Z58" s="5"/>
       <c r="AA58" s="5"/>
       <c r="AB58" s="5"/>
@@ -14194,7 +14204,7 @@
       <c r="AP58" s="5"/>
       <c r="AQ58" s="5"/>
     </row>
-    <row r="59" spans="26:43" x14ac:dyDescent="0.3">
+    <row r="59" spans="26:43" x14ac:dyDescent="0.45">
       <c r="Z59" s="5"/>
       <c r="AA59" s="5"/>
       <c r="AB59" s="5"/>
@@ -14214,7 +14224,7 @@
       <c r="AP59" s="5"/>
       <c r="AQ59" s="5"/>
     </row>
-    <row r="60" spans="26:43" x14ac:dyDescent="0.3">
+    <row r="60" spans="26:43" x14ac:dyDescent="0.45">
       <c r="Z60" s="5"/>
       <c r="AA60" s="5"/>
       <c r="AB60" s="5"/>
@@ -14234,7 +14244,7 @@
       <c r="AP60" s="5"/>
       <c r="AQ60" s="5"/>
     </row>
-    <row r="61" spans="26:43" x14ac:dyDescent="0.3">
+    <row r="61" spans="26:43" x14ac:dyDescent="0.45">
       <c r="Z61" s="5"/>
       <c r="AA61" s="5"/>
       <c r="AB61" s="5"/>
@@ -14254,7 +14264,7 @@
       <c r="AP61" s="5"/>
       <c r="AQ61" s="5"/>
     </row>
-    <row r="62" spans="26:43" x14ac:dyDescent="0.3">
+    <row r="62" spans="26:43" x14ac:dyDescent="0.45">
       <c r="Z62" s="5"/>
       <c r="AA62" s="5"/>
       <c r="AB62" s="5"/>
@@ -14274,7 +14284,7 @@
       <c r="AP62" s="5"/>
       <c r="AQ62" s="5"/>
     </row>
-    <row r="63" spans="26:43" x14ac:dyDescent="0.3">
+    <row r="63" spans="26:43" x14ac:dyDescent="0.45">
       <c r="Z63" s="5"/>
       <c r="AA63" s="5"/>
       <c r="AB63" s="5"/>
@@ -14294,7 +14304,7 @@
       <c r="AP63" s="5"/>
       <c r="AQ63" s="5"/>
     </row>
-    <row r="64" spans="26:43" x14ac:dyDescent="0.3">
+    <row r="64" spans="26:43" x14ac:dyDescent="0.45">
       <c r="Z64" s="5"/>
       <c r="AA64" s="5"/>
       <c r="AB64" s="5"/>
@@ -14314,7 +14324,7 @@
       <c r="AP64" s="5"/>
       <c r="AQ64" s="5"/>
     </row>
-    <row r="65" spans="26:43" x14ac:dyDescent="0.3">
+    <row r="65" spans="26:43" x14ac:dyDescent="0.45">
       <c r="Z65" s="4"/>
       <c r="AA65" s="4"/>
       <c r="AB65" s="4"/>
@@ -14334,7 +14344,7 @@
       <c r="AP65" s="4"/>
       <c r="AQ65" s="4"/>
     </row>
-    <row r="66" spans="26:43" x14ac:dyDescent="0.3">
+    <row r="66" spans="26:43" x14ac:dyDescent="0.45">
       <c r="Z66" s="4"/>
       <c r="AA66" s="4"/>
       <c r="AB66" s="4"/>
@@ -14354,7 +14364,7 @@
       <c r="AP66" s="4"/>
       <c r="AQ66" s="4"/>
     </row>
-    <row r="67" spans="26:43" x14ac:dyDescent="0.3">
+    <row r="67" spans="26:43" x14ac:dyDescent="0.45">
       <c r="Z67" s="4"/>
       <c r="AA67" s="4"/>
       <c r="AB67" s="4"/>
@@ -14374,7 +14384,7 @@
       <c r="AP67" s="4"/>
       <c r="AQ67" s="4"/>
     </row>
-    <row r="68" spans="26:43" x14ac:dyDescent="0.3">
+    <row r="68" spans="26:43" x14ac:dyDescent="0.45">
       <c r="Z68" s="4"/>
       <c r="AA68" s="4"/>
       <c r="AB68" s="4"/>
@@ -14394,7 +14404,7 @@
       <c r="AP68" s="4"/>
       <c r="AQ68" s="4"/>
     </row>
-    <row r="69" spans="26:43" x14ac:dyDescent="0.3">
+    <row r="69" spans="26:43" x14ac:dyDescent="0.45">
       <c r="Z69" s="4"/>
       <c r="AA69" s="4"/>
       <c r="AB69" s="4"/>
@@ -14414,7 +14424,7 @@
       <c r="AP69" s="4"/>
       <c r="AQ69" s="4"/>
     </row>
-    <row r="70" spans="26:43" x14ac:dyDescent="0.3">
+    <row r="70" spans="26:43" x14ac:dyDescent="0.45">
       <c r="Z70" s="4"/>
       <c r="AA70" s="4"/>
       <c r="AB70" s="4"/>
@@ -14434,7 +14444,7 @@
       <c r="AP70" s="4"/>
       <c r="AQ70" s="4"/>
     </row>
-    <row r="71" spans="26:43" x14ac:dyDescent="0.3">
+    <row r="71" spans="26:43" x14ac:dyDescent="0.45">
       <c r="Z71" s="4"/>
       <c r="AA71" s="4"/>
       <c r="AB71" s="4"/>
@@ -14454,7 +14464,7 @@
       <c r="AP71" s="4"/>
       <c r="AQ71" s="4"/>
     </row>
-    <row r="72" spans="26:43" x14ac:dyDescent="0.3">
+    <row r="72" spans="26:43" x14ac:dyDescent="0.45">
       <c r="Z72" s="4"/>
       <c r="AA72" s="4"/>
       <c r="AB72" s="4"/>
@@ -14474,7 +14484,7 @@
       <c r="AP72" s="4"/>
       <c r="AQ72" s="4"/>
     </row>
-    <row r="73" spans="26:43" x14ac:dyDescent="0.3">
+    <row r="73" spans="26:43" x14ac:dyDescent="0.45">
       <c r="Z73" s="4"/>
       <c r="AA73" s="4"/>
       <c r="AB73" s="4"/>
@@ -14494,7 +14504,7 @@
       <c r="AP73" s="4"/>
       <c r="AQ73" s="4"/>
     </row>
-    <row r="74" spans="26:43" x14ac:dyDescent="0.3">
+    <row r="74" spans="26:43" x14ac:dyDescent="0.45">
       <c r="Z74" s="4"/>
       <c r="AA74" s="4"/>
       <c r="AB74" s="4"/>
@@ -14514,7 +14524,7 @@
       <c r="AP74" s="4"/>
       <c r="AQ74" s="4"/>
     </row>
-    <row r="75" spans="26:43" x14ac:dyDescent="0.3">
+    <row r="75" spans="26:43" x14ac:dyDescent="0.45">
       <c r="Z75" s="4"/>
       <c r="AA75" s="4"/>
       <c r="AB75" s="4"/>
@@ -14534,7 +14544,7 @@
       <c r="AP75" s="4"/>
       <c r="AQ75" s="4"/>
     </row>
-    <row r="76" spans="26:43" x14ac:dyDescent="0.3">
+    <row r="76" spans="26:43" x14ac:dyDescent="0.45">
       <c r="Z76" s="4"/>
       <c r="AA76" s="4"/>
       <c r="AB76" s="4"/>
@@ -14554,7 +14564,7 @@
       <c r="AP76" s="4"/>
       <c r="AQ76" s="4"/>
     </row>
-    <row r="77" spans="26:43" x14ac:dyDescent="0.3">
+    <row r="77" spans="26:43" x14ac:dyDescent="0.45">
       <c r="Z77" s="4"/>
       <c r="AA77" s="4"/>
       <c r="AB77" s="4"/>
@@ -14585,11 +14595,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97A83BB0-7743-4E5B-A843-EEBAAF75BF43}">
   <dimension ref="A1:AA14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="40.75" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.25" bestFit="1" customWidth="1"/>
@@ -14597,12 +14607,12 @@
     <col min="5" max="5" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>34</v>
       </c>
@@ -14685,7 +14695,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>39</v>
       </c>
@@ -14768,7 +14778,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>39</v>
       </c>
@@ -14851,7 +14861,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>39</v>
       </c>
@@ -14934,7 +14944,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>39</v>
       </c>
@@ -15017,7 +15027,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>39</v>
       </c>
@@ -15100,7 +15110,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>39</v>
       </c>
@@ -15183,7 +15193,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>39</v>
       </c>
@@ -15266,7 +15276,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>39</v>
       </c>
@@ -15349,7 +15359,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>39</v>
       </c>
@@ -15432,7 +15442,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>39</v>
       </c>
@@ -15515,7 +15525,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>39</v>
       </c>
@@ -15598,7 +15608,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>39</v>
       </c>
